--- a/WorkBot/main/backend/orders/OrderFiles/Copper Horse Coffee/combined_order.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Copper Horse Coffee/combined_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\orders\OrderFiles\Copper Horse Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EEF09F-5583-4E26-AB0E-B1707EE8D53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDF736E-5F23-4CCA-88C0-F11C01D60EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="2745" windowWidth="9540" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -376,9 +376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -390,7 +388,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,7 +396,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -406,7 +404,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -414,7 +412,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -422,7 +420,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/WorkBot/main/backend/orders/OrderFiles/Copper Horse Coffee/combined_order.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Copper Horse Coffee/combined_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\orders\OrderFiles\Copper Horse Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDF736E-5F23-4CCA-88C0-F11C01D60EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67946AF3-C88F-4634-9D59-8D5AF2B715D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2745" windowWidth="9540" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Copper Horse - Warhorse 5lb</t>
-  </si>
-  <si>
-    <t>Copper Horse - Carriage House Blend (12oz)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Copper Horse - Clocktower Espresso (12oz)</t>
   </si>
@@ -34,7 +28,10 @@
     <t>Copper Horse - Rumble Pony (12oz)</t>
   </si>
   <si>
-    <t>Copper Horse - Warhorse Blend (12oz)</t>
+    <t>Copper Horse - Carriage House Blend (12oz)</t>
+  </si>
+  <si>
+    <t>Copper Horse - Warhorse 5lb</t>
   </si>
 </sst>
 </file>
@@ -374,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +393,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -404,7 +401,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -413,14 +410,6 @@
       </c>
       <c r="B4">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/WorkBot/main/backend/orders/OrderFiles/Copper Horse Coffee/combined_order.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Copper Horse Coffee/combined_order.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -438,47 +438,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Copper Horse - Sleigh Bells (12oz)</t>
+          <t>Copper Horse - Clocktower Espresso (12oz)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Copper Horse - Rumble Pony (12oz)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Copper Horse - Clocktower Espresso (12oz)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
           <t>Copper Horse - Carriage House Blend (12oz)</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
+      <c r="B4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
